--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_23_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_23_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1281722.038058413</v>
+        <v>1366871.193799321</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673261</v>
+        <v>4171427.157673262</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.09081815943098</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>88.09081815943064</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>170.7857196598892</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>106.7871545982907</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.00402729331245</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.8610491158133</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>348.8610491158133</v>
+        <v>73.45526112481767</v>
       </c>
       <c r="G5" t="n">
-        <v>348.8610491158133</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>54.26685457558293</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>42.01012405923044</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>210.999833426395</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>91.05007310606553</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>119.1699959579254</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I6" t="n">
-        <v>48.61941455285695</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>53.88557034998215</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2055152876975</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>27.2740089190895</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>39.36365699972247</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>186.7131345425123</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>297.2669997576639</v>
+        <v>64.4654997892584</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.6761715944833</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>70.66270691447909</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>126.3796986693934</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>207.2205572464783</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.4031333312317</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>93.49542143817385</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247721</v>
+        <v>32.7153050831823</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>25.20549727320325</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>184.743066656655</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8137252499236</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1278,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>95.8113722337991</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3642267354451</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.7638628228272</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>106.5295869551746</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.98401099232991</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>15.2866524423651</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>6.944421521837088</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>243.2391485592454</v>
+        <v>84.22290965229026</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>74.7576914549238</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>201.6622187863195</v>
       </c>
       <c r="Y14" t="n">
-        <v>260.1478989722381</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>106.5867442799591</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>20.47554896769178</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863195</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.07437110675892</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2059,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>42.86209348694737</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>85.17289288835173</v>
+        <v>111.4702381038692</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2327,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>16.34825474388639</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>23.79925355567503</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2494,7 +2496,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471498</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2561,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>242.8528437613046</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>89.60487759803652</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2731,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039625</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>142.6955872305736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>190.2887505670082</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>53.70969583585297</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>13.02719212039627</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>182.1403198644307</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>127.5532942524969</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>299.4200133688915</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,19 +3082,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3196,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>253.0207069265283</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>52.23490948285976</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>371.0050721667905</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>250.7168841180076</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>84.69473660442891</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>214.6649597713308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>80.7662475327671</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>136.9968647819699</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>101.92207117248</v>
       </c>
       <c r="V41" t="n">
-        <v>283.4895979157968</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>74.75769145492396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>6.380068175847831</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>184.6448939492135</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>242.8528437613041</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>40.64444437213178</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>91.49069404297201</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>672.2420264262262</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="C2" t="n">
-        <v>672.2420264262262</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="D2" t="n">
-        <v>672.2420264262262</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="E2" t="n">
-        <v>583.2614020227605</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="F2" t="n">
-        <v>393.8416170062756</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897906</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262262</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262262</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262262</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262262</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262262</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262262</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262262</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.2420264262262</v>
+        <v>393.8416170062749</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>203.0474416122425</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C3" t="n">
-        <v>30.53661367296051</v>
+        <v>371.26277863231</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296051</v>
+        <v>371.26277863231</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296051</v>
+        <v>371.26277863231</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296051</v>
+        <v>224.7282206591949</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296051</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772654</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140248</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546608</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476355</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487955</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487955</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487955</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6825636487955</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.2627786323105</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>731.8118344560949</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="C4" t="n">
-        <v>731.8118344560949</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="D4" t="n">
-        <v>731.8118344560949</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="E4" t="n">
-        <v>731.8118344560949</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>731.8118344560949</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>731.8118344560949</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>731.8118344560949</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>731.8118344560949</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>711.6057462810318</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>697.358968610296</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>709.3965921992922</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M4" t="n">
-        <v>725.3468614886976</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N4" t="n">
-        <v>748.7753949309539</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652805</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P4" t="n">
-        <v>731.8118344560949</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q4" t="n">
-        <v>731.8118344560949</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R4" t="n">
-        <v>731.8118344560949</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S4" t="n">
-        <v>731.8118344560949</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T4" t="n">
-        <v>731.8118344560949</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U4" t="n">
-        <v>731.8118344560949</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="V4" t="n">
-        <v>731.8118344560949</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="W4" t="n">
-        <v>731.8118344560949</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="X4" t="n">
-        <v>731.8118344560949</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Y4" t="n">
-        <v>731.8118344560949</v>
+        <v>67.74542702828974</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>787.4936847446284</v>
+        <v>919.9514261357804</v>
       </c>
       <c r="C5" t="n">
-        <v>787.4936847446284</v>
+        <v>919.9514261357804</v>
       </c>
       <c r="D5" t="n">
-        <v>787.4936847446284</v>
+        <v>919.9514261357804</v>
       </c>
       <c r="E5" t="n">
-        <v>787.4936847446284</v>
+        <v>919.9514261357804</v>
       </c>
       <c r="F5" t="n">
-        <v>435.1087866478472</v>
+        <v>845.7541926763686</v>
       </c>
       <c r="G5" t="n">
-        <v>82.72388855106601</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H5" t="n">
-        <v>82.72388855106601</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
-        <v>27.90888392926507</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J5" t="n">
-        <v>80.8534286645218</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K5" t="n">
-        <v>210.9420950112649</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L5" t="n">
-        <v>409.2303506990926</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M5" t="n">
-        <v>661.5336786524873</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N5" t="n">
-        <v>922.5333466060091</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O5" t="n">
-        <v>1155.652670727838</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P5" t="n">
-        <v>1320.113619600686</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q5" t="n">
-        <v>1395.444196463253</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R5" t="n">
-        <v>1353.009727716556</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S5" t="n">
-        <v>1353.009727716556</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="T5" t="n">
-        <v>1139.87858284141</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="U5" t="n">
-        <v>1139.87858284141</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="V5" t="n">
-        <v>1139.87858284141</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="W5" t="n">
-        <v>1139.87858284141</v>
+        <v>1683.556516372672</v>
       </c>
       <c r="X5" t="n">
-        <v>1139.87858284141</v>
+        <v>1310.090758111592</v>
       </c>
       <c r="Y5" t="n">
-        <v>1139.87858284141</v>
+        <v>919.9514261357804</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>531.0836212570418</v>
+        <v>267.4604631511936</v>
       </c>
       <c r="C6" t="n">
-        <v>356.6305919759149</v>
+        <v>267.4604631511936</v>
       </c>
       <c r="D6" t="n">
-        <v>356.6305919759149</v>
+        <v>267.4604631511936</v>
       </c>
       <c r="E6" t="n">
-        <v>197.3931369704594</v>
+        <v>175.4906923369859</v>
       </c>
       <c r="F6" t="n">
-        <v>197.3931369704594</v>
+        <v>175.4906923369859</v>
       </c>
       <c r="G6" t="n">
-        <v>77.01940367962561</v>
+        <v>175.4906923369859</v>
       </c>
       <c r="H6" t="n">
-        <v>77.01940367962561</v>
+        <v>80.03532540581917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.90888392926507</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J6" t="n">
-        <v>40.62444511014905</v>
+        <v>89.55356510562335</v>
       </c>
       <c r="K6" t="n">
-        <v>140.5121891979911</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1461291925027</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M6" t="n">
-        <v>551.2942853858369</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N6" t="n">
-        <v>801.9424233621439</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.016706323298</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P6" t="n">
-        <v>1155.879008147612</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q6" t="n">
-        <v>1204.133371204988</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R6" t="n">
-        <v>1149.703502164602</v>
+        <v>1734.238298972666</v>
       </c>
       <c r="S6" t="n">
-        <v>1149.703502164602</v>
+        <v>1595.273638474384</v>
       </c>
       <c r="T6" t="n">
-        <v>953.5363150053116</v>
+        <v>1400.56331694836</v>
       </c>
       <c r="U6" t="n">
-        <v>953.5363150053116</v>
+        <v>1172.461727081625</v>
       </c>
       <c r="V6" t="n">
-        <v>953.5363150053116</v>
+        <v>937.3096188498819</v>
       </c>
       <c r="W6" t="n">
-        <v>699.2989582771099</v>
+        <v>683.0722621216803</v>
       </c>
       <c r="X6" t="n">
-        <v>699.2989582771099</v>
+        <v>475.2207619161475</v>
       </c>
       <c r="Y6" t="n">
-        <v>699.2989582771099</v>
+        <v>267.4604631511936</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.67015362595443</v>
+        <v>469.916922592777</v>
       </c>
       <c r="C7" t="n">
-        <v>67.67015362595443</v>
+        <v>469.916922592777</v>
       </c>
       <c r="D7" t="n">
-        <v>67.67015362595443</v>
+        <v>469.916922592777</v>
       </c>
       <c r="E7" t="n">
-        <v>67.67015362595443</v>
+        <v>322.0038290103839</v>
       </c>
       <c r="F7" t="n">
-        <v>67.67015362595443</v>
+        <v>322.0038290103839</v>
       </c>
       <c r="G7" t="n">
-        <v>67.67015362595443</v>
+        <v>322.0038290103839</v>
       </c>
       <c r="H7" t="n">
-        <v>67.67015362595443</v>
+        <v>171.9636155141766</v>
       </c>
       <c r="I7" t="n">
-        <v>67.67015362595443</v>
+        <v>61.70688273934478</v>
       </c>
       <c r="J7" t="n">
-        <v>27.90888392926507</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="K7" t="n">
-        <v>42.75160764526193</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L7" t="n">
-        <v>91.6509815330285</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M7" t="n">
-        <v>146.4667981137203</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N7" t="n">
-        <v>207.8367430014457</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O7" t="n">
-        <v>244.2087312010579</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P7" t="n">
-        <v>256.2692794264719</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q7" t="n">
-        <v>256.2692794264719</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="R7" t="n">
-        <v>256.2692794264719</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="S7" t="n">
-        <v>256.2692794264719</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="T7" t="n">
-        <v>67.67015362595443</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="U7" t="n">
-        <v>67.67015362595443</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="V7" t="n">
-        <v>67.67015362595443</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="W7" t="n">
-        <v>67.67015362595443</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="X7" t="n">
-        <v>67.67015362595443</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.67015362595443</v>
+        <v>497.4664265514533</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1918.208919851716</v>
+        <v>1011.427453840002</v>
       </c>
       <c r="C8" t="n">
-        <v>1918.208919851716</v>
+        <v>1011.427453840002</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>946.3107873862057</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>946.3107873862057</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>535.3248825965982</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>119.4903658344938</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>119.4903658344938</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>48.11389420370688</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>173.6006955371254</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>412.4113998844095</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>745.5789575721415</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1147.961497459637</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1561.46881589934</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>1938.596789767451</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2225.965789440887</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2393.595193823326</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2405.694710185344</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2278.038448903128</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>2068.724754714767</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2068.724754714767</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>1737.661867371196</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>1384.893212101082</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915838</v>
+        <v>1011.427453840002</v>
       </c>
       <c r="Y8" t="n">
-        <v>2304.808759915838</v>
+        <v>1011.427453840002</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811084</v>
+        <v>792.5953605569274</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999814</v>
+        <v>618.1423312758004</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1423312758004</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332746</v>
+        <v>458.904876270345</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601596</v>
+        <v>312.37031829723</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927777</v>
+        <v>175.5994765485111</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064525</v>
+        <v>81.15965691399204</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>48.11389420370688</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>104.0351264502468</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>277.7682440873323</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>557.6964019039178</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>903.7162268899237</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1273.302811944933</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1589.182537471364</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>1823.370799411575</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>1930.000254186831</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>1904.54015593107</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>1904.54015593107</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1717.930997692024</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>1489.836325722405</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1254.684217490662</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1000.44686076246</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>792.5953605569274</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>792.5953605569274</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445192</v>
+        <v>581.9048636376219</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>581.9048636376219</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>581.9048636376219</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>581.9048636376219</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>485.1256997650976</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>317.081026294951</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>167.8245992011861</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>60.21895581212094</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>48.11389420370688</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>107.4998553139087</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>213.3992373663723</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>328.3135705658651</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>448.3530236739858</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>538.9157986502099</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>597.345926710718</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>581.9048636376219</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>581.9048636376219</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>581.9048636376219</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>581.9048636376219</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877109</v>
+        <v>581.9048636376219</v>
       </c>
       <c r="V10" t="n">
-        <v>444.4359021818241</v>
+        <v>581.9048636376219</v>
       </c>
       <c r="W10" t="n">
-        <v>437.4213349880492</v>
+        <v>581.9048636376219</v>
       </c>
       <c r="X10" t="n">
-        <v>437.4213349880492</v>
+        <v>581.9048636376219</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.6287558445192</v>
+        <v>581.9048636376219</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>3079.909711953368</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="Y11" t="n">
-        <v>2689.770379977556</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.0249360836216</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>142.0249360836216</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>142.0249360836216</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>142.0249360836216</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>142.0249360836216</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>142.0249360836216</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0249360836216</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5221,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5278,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5312,13 +5314,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.5429342656</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2994.5429342656</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X14" t="n">
-        <v>2994.5429342656</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y14" t="n">
         <v>2731.767278738087</v>
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>880.2242361621296</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>880.2242361621296</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
         <v>772.5608581015648</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
-        <v>880.2242361621296</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>880.2242361621296</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>880.2242361621296</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C17" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
         <v>1232.150970528558</v>
@@ -5513,25 +5515,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2735.124556099686</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2382.355900829572</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X17" t="n">
-        <v>2008.890142568492</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y17" t="n">
-        <v>1618.75081059268</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="18">
@@ -5568,70 +5570,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>216.6287558445192</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="C19" t="n">
-        <v>216.6287558445192</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046018</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676413</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="X19" t="n">
-        <v>452.6479724696239</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.8553933260938</v>
+        <v>2489.924953962485</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796261</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C20" t="n">
-        <v>552.8079389392144</v>
+        <v>1703.012869240227</v>
       </c>
       <c r="D20" t="n">
-        <v>194.5422403324639</v>
+        <v>1344.747170633477</v>
       </c>
       <c r="E20" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
@@ -5750,16 +5752,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5786,16 +5788,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943748</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="21">
@@ -5835,7 +5837,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J22" t="n">
         <v>1509.946022399797</v>
@@ -5914,16 +5916,16 @@
         <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N22" t="n">
         <v>2716.058426102583</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P22" t="n">
         <v>3247.995525456656</v>
@@ -5932,7 +5934,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366699</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S22" t="n">
         <v>3044.089480193525</v>
@@ -5941,7 +5943,7 @@
         <v>2822.322864763051</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888695</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V22" t="n">
         <v>2278.535509682808</v>
@@ -5953,7 +5955,7 @@
         <v>1761.12878874783</v>
       </c>
       <c r="Y22" t="n">
-        <v>1540.3362096043</v>
+        <v>1540.336209604299</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2345.167438673965</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3309.092432978983</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3309.092432978983</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3055.56195625282</v>
       </c>
       <c r="V23" t="n">
-        <v>2731.767278738087</v>
+        <v>2724.499068909249</v>
       </c>
       <c r="W23" t="n">
-        <v>2731.767278738087</v>
+        <v>2371.730413639134</v>
       </c>
       <c r="X23" t="n">
-        <v>2731.767278738087</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y23" t="n">
-        <v>2731.767278738087</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="24">
@@ -6057,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>994.2880032601528</v>
+        <v>2489.924953962486</v>
       </c>
       <c r="C25" t="n">
-        <v>825.3518203322459</v>
+        <v>2320.988771034579</v>
       </c>
       <c r="D25" t="n">
-        <v>675.2351809199101</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E25" t="n">
-        <v>527.322087337517</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F25" t="n">
-        <v>380.4321398396066</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143256</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V25" t="n">
-        <v>1914.135768168901</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W25" t="n">
-        <v>1624.71859813194</v>
+        <v>3120.355548834273</v>
       </c>
       <c r="X25" t="n">
-        <v>1396.729047233923</v>
+        <v>2892.365997936256</v>
       </c>
       <c r="Y25" t="n">
-        <v>1175.936468090393</v>
+        <v>2671.573418792726</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1204.726236768953</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C26" t="n">
-        <v>835.7637198285415</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D26" t="n">
-        <v>477.498021221791</v>
+        <v>1448.172675760996</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F26" t="n">
-        <v>66.51211643218345</v>
+        <v>651.398518373144</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794326</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450755</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180641</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X26" t="n">
-        <v>1981.465408808887</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y26" t="n">
-        <v>1591.326076833075</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
         <v>765.1517452158131</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.613680441807</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6415,19 +6417,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V28" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W28" t="n">
-        <v>1638.191681214136</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X28" t="n">
-        <v>1494.054724415577</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.262145272047</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1032.061124352532</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C29" t="n">
-        <v>1032.061124352532</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D29" t="n">
-        <v>673.7954257457811</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E29" t="n">
-        <v>673.7954257457811</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>673.7954257457811</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>258.7229755907776</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6482,7 +6484,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6491,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.09759726723</v>
+        <v>3065.37585597738</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.034709923659</v>
+        <v>2734.312968633809</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.266054653545</v>
+        <v>2381.544313363695</v>
       </c>
       <c r="X29" t="n">
-        <v>1808.800296392465</v>
+        <v>2008.078555102614</v>
       </c>
       <c r="Y29" t="n">
-        <v>1418.660964416653</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="30">
@@ -6531,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1611.040576735004</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C31" t="n">
-        <v>1611.040576735004</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D31" t="n">
-        <v>1611.040576735004</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E31" t="n">
-        <v>1611.040576735004</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F31" t="n">
-        <v>1611.040576735004</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G31" t="n">
-        <v>1611.040576735004</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.823389952862</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>3044.089480193526</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>2822.322864763052</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>2533.219997888695</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V31" t="n">
-        <v>2349.239876813513</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W31" t="n">
-        <v>2059.822706776552</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X31" t="n">
-        <v>1831.833155878534</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y31" t="n">
-        <v>1611.040576735004</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1179.52858457759</v>
+        <v>1832.276849100055</v>
       </c>
       <c r="C32" t="n">
-        <v>810.5660676371781</v>
+        <v>1463.314332159643</v>
       </c>
       <c r="D32" t="n">
-        <v>452.3003690304276</v>
+        <v>1463.314332159643</v>
       </c>
       <c r="E32" t="n">
-        <v>66.51211643218343</v>
+        <v>1077.526079561399</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218343</v>
+        <v>666.5401747717915</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
         <v>66.51211643218343</v>
@@ -6728,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.97538618064</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.50962791956</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943748</v>
+        <v>2218.876689164177</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>624.6477645191717</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="C34" t="n">
-        <v>624.6477645191717</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="D34" t="n">
-        <v>624.6477645191717</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L34" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N34" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O34" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W34" t="n">
-        <v>624.6477645191717</v>
+        <v>1989.118339645848</v>
       </c>
       <c r="X34" t="n">
-        <v>624.6477645191717</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y34" t="n">
-        <v>624.6477645191717</v>
+        <v>1708.366253916659</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1689.318139675982</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C35" t="n">
-        <v>1320.35562273557</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>852.2506193700642</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>441.2647145804567</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
@@ -6971,16 +6973,16 @@
         <v>3072.075344883007</v>
       </c>
       <c r="V35" t="n">
-        <v>2818.825966986029</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W35" t="n">
-        <v>2466.057311715915</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X35" t="n">
-        <v>2466.057311715915</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y35" t="n">
-        <v>2075.917979740103</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1464.823389952861</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.823389952861</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.823389952861</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.823389952861</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952861</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952861</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3150.225125372326</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>2928.458509941852</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>2639.355643067495</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V37" t="n">
-        <v>2384.671154861609</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W37" t="n">
-        <v>2095.253984824648</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X37" t="n">
-        <v>1867.264433926631</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y37" t="n">
-        <v>1646.471854783101</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>298.629863103029</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810553</v>
@@ -7211,13 +7213,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>3325.605821609171</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X38" t="n">
-        <v>2952.140063348091</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y38" t="n">
-        <v>2562.000731372279</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1004.259565728817</v>
+        <v>373.8289708570296</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>204.8927879291227</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>204.8927879291227</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>204.8927879291227</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>204.8927879291227</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
@@ -7372,10 +7374,10 @@
         <v>1004.259565728817</v>
       </c>
       <c r="X40" t="n">
-        <v>1004.259565728817</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y40" t="n">
-        <v>1004.259565728817</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7430,28 +7432,28 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520488</v>
+        <v>3016.676486950485</v>
       </c>
       <c r="V41" t="n">
-        <v>2722.984276312612</v>
+        <v>2685.613599606915</v>
       </c>
       <c r="W41" t="n">
-        <v>2722.984276312612</v>
+        <v>2332.8449443368</v>
       </c>
       <c r="X41" t="n">
-        <v>2349.518518051532</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="Y41" t="n">
         <v>1959.379186075721</v>
@@ -7464,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
         <v>2407.411984886741</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1540.336209604299</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C43" t="n">
-        <v>1464.823389952861</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="D43" t="n">
-        <v>1464.823389952861</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="E43" t="n">
-        <v>1464.823389952861</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="F43" t="n">
-        <v>1464.823389952861</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="G43" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H43" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>3044.089480193525</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>2822.322864763051</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>2533.219997888694</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>2278.535509682808</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>1989.118339645847</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X43" t="n">
-        <v>1761.12878874783</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y43" t="n">
-        <v>1540.336209604299</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1418.660964416653</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C44" t="n">
-        <v>1232.150970528558</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D44" t="n">
-        <v>1232.150970528558</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>651.3985183731436</v>
       </c>
       <c r="G44" t="n">
         <v>406.0926155839475</v>
@@ -7676,22 +7678,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923659</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653544</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.800296392465</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y44" t="n">
-        <v>1418.660964416653</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>373.8289708570296</v>
+        <v>890.9213886294034</v>
       </c>
       <c r="C46" t="n">
-        <v>204.8927879291227</v>
+        <v>721.9852057014965</v>
       </c>
       <c r="D46" t="n">
-        <v>204.8927879291227</v>
+        <v>571.8685662891608</v>
       </c>
       <c r="E46" t="n">
-        <v>204.8927879291227</v>
+        <v>423.9554727067676</v>
       </c>
       <c r="F46" t="n">
-        <v>204.8927879291227</v>
+        <v>423.9554727067676</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8377936138381</v>
+        <v>256.2526360814866</v>
       </c>
       <c r="H46" t="n">
         <v>163.8377936138381</v>
@@ -7837,19 +7839,19 @@
         <v>1837.464090846021</v>
       </c>
       <c r="U46" t="n">
-        <v>1548.361223971664</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V46" t="n">
-        <v>1293.676735765777</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W46" t="n">
-        <v>1004.259565728817</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X46" t="n">
-        <v>776.2700148307995</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="Y46" t="n">
-        <v>555.4774356872693</v>
+        <v>1072.569853459643</v>
       </c>
     </row>
   </sheetData>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>126.4919521192237</v>
+        <v>285.5081910261788</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21.59472895491429</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>168.0688818921495</v>
       </c>
       <c r="Y14" t="n">
-        <v>126.0900396838155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>42.02872873825321</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>307.2767095024431</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>168.0688818921495</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>164.7576090751784</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>209.2755498368806</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>296.7574771839101</v>
+        <v>270.4601319683926</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24215,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>92.83950704428945</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>303.9530049144599</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>239.1104512034317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>83.32522828944121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24449,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>168.0688818921489</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>280.1262230804325</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>83.0140681584636</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>104.3190138203123</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>197.285476123049</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>69.99732345939731</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>255.1805474109836</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>111.5017122845619</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24968,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25084,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>33.50229141006267</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>166.349743869235</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>39.91665348666294</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25211,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>77.03537435212726</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>105.074288727013</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>168.0688818921498</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>64.81119518318334</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25451,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>86.48057356586074</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>29.02894347705836</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>149.073100786422</v>
       </c>
       <c r="V41" t="n">
-        <v>44.26266055433814</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>92.48912964370388</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>159.6457400831804</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>180.6279978217941</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>168.0688818921493</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25916,16 +25918,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>125.3813638868965</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>53.26432087134877</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>781272.1838798552</v>
+        <v>781272.1838798551</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>781272.183879855</v>
+        <v>781272.1838798551</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>781272.183879855</v>
+        <v>781272.1838798551</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>781272.183879855</v>
+        <v>781272.1838798551</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>781272.1838798549</v>
+        <v>781272.183879855</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>781272.183879855</v>
+        <v>781272.1838798551</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651772</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651771</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651768</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
         <v>426246.3737136506</v>
@@ -26341,19 +26343,19 @@
         <v>426246.3737136506</v>
       </c>
       <c r="L2" t="n">
-        <v>426246.3737136506</v>
+        <v>426246.3737136507</v>
       </c>
       <c r="M2" t="n">
         <v>426246.3737136507</v>
       </c>
       <c r="N2" t="n">
+        <v>426246.3737136506</v>
+      </c>
+      <c r="O2" t="n">
         <v>426246.3737136507</v>
       </c>
-      <c r="O2" t="n">
-        <v>426246.3737136506</v>
-      </c>
       <c r="P2" t="n">
-        <v>426246.3737136508</v>
+        <v>426246.3737136507</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>178589.1710753374</v>
+        <v>392510.2442861785</v>
       </c>
       <c r="D3" t="n">
-        <v>494533.5498516904</v>
+        <v>59871.45719829509</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>219439.6828815246</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854475</v>
+        <v>49064.94472854458</v>
       </c>
       <c r="K3" t="n">
-        <v>41522.58517101711</v>
+        <v>91259.95686487785</v>
       </c>
       <c r="L3" t="n">
-        <v>122126.6339674514</v>
+        <v>15010.50346109829</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>57311.38215281574</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>231055.5957741332</v>
+        <v>174202.9900888975</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>157675.7383646807</v>
       </c>
       <c r="E4" t="n">
         <v>14649.95482218994</v>
@@ -26436,7 +26438,7 @@
         <v>14649.95482218994</v>
       </c>
       <c r="I4" t="n">
-        <v>14649.95482218993</v>
+        <v>14649.95482218994</v>
       </c>
       <c r="J4" t="n">
         <v>14649.95482218994</v>
@@ -26454,7 +26456,7 @@
         <v>14649.95482218994</v>
       </c>
       <c r="O4" t="n">
-        <v>14649.95482218993</v>
+        <v>14649.95482218994</v>
       </c>
       <c r="P4" t="n">
         <v>14649.95482218994</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>69822.62854487306</v>
+        <v>85199.0818558723</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>89860.11994103153</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26491,7 +26493,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26506,7 +26508,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-413728.161601412</v>
+        <v>-413728.1616014116</v>
       </c>
       <c r="C6" t="n">
-        <v>33683.71077083325</v>
+        <v>-138761.2100657712</v>
       </c>
       <c r="D6" t="n">
-        <v>-182913.1283519592</v>
+        <v>205743.7906611699</v>
       </c>
       <c r="E6" t="n">
-        <v>337290.0783300673</v>
+        <v>117850.3954485427</v>
       </c>
       <c r="F6" t="n">
-        <v>337290.0783300673</v>
+        <v>337290.0783300674</v>
       </c>
       <c r="G6" t="n">
         <v>337290.0783300674</v>
@@ -26543,25 +26545,25 @@
         <v>337290.0783300675</v>
       </c>
       <c r="J6" t="n">
-        <v>288225.1336015227</v>
+        <v>288225.1336015229</v>
       </c>
       <c r="K6" t="n">
-        <v>295767.4931590503</v>
+        <v>246030.1214651896</v>
       </c>
       <c r="L6" t="n">
-        <v>215163.444362616</v>
+        <v>322279.5748689692</v>
       </c>
       <c r="M6" t="n">
-        <v>337290.0783300675</v>
+        <v>279978.6961772518</v>
       </c>
       <c r="N6" t="n">
-        <v>337290.0783300675</v>
+        <v>337290.0783300674</v>
       </c>
       <c r="O6" t="n">
         <v>337290.0783300674</v>
       </c>
       <c r="P6" t="n">
-        <v>337290.0783300676</v>
+        <v>337290.0783300675</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>687.3521448913583</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>902.1082727621241</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>348.8610491158133</v>
+        <v>542.1149567261638</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>601.4236775463361</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
@@ -26805,16 +26807,16 @@
         <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022929</v>
@@ -26826,7 +26828,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022928</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>138.8822039784535</v>
+        <v>305.2407236247803</v>
       </c>
       <c r="D3" t="n">
-        <v>402.42455570194</v>
+        <v>48.3976082244393</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>187.6684278311742</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>161.3354619494932</v>
+        <v>354.5893695598439</v>
       </c>
       <c r="D4" t="n">
-        <v>482.5404062864794</v>
+        <v>59.30872082017233</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>229.9777778559566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663205</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.335461949493</v>
+        <v>354.5893695598437</v>
       </c>
       <c r="L4" t="n">
-        <v>482.5404062864794</v>
+        <v>59.30872082017255</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>229.9777778559563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.3354619494932</v>
+        <v>354.5893695598439</v>
       </c>
       <c r="L4" t="n">
-        <v>482.5404062864794</v>
+        <v>59.30872082017233</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>229.9777778559566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>293.8395519128308</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753913</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637379</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>70.68499503062249</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>1.922779328426572</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,19 +27469,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>29.37663476748459</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.3381812437708</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310546</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715767</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098424</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>94.21801639213486</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>37.06597233494168</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.87279254766725</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>58.01499662589811</v>
+        <v>333.4207846168938</v>
       </c>
       <c r="G5" t="n">
-        <v>63.6784636962409</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1759271253405</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>49.67981462929897</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0530866647907</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.12459493159</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>66.59500734933542</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>16.69506564834911</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95667609450805</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.221507579169</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8441152680185</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>152.5579712628478</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7514918840645</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2070020532798</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1757061518384</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>47.71482775085074</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5615273012243</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4157117786652</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T7" t="n">
-        <v>35.93646294972098</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2514209487966</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>57.41604186301907</v>
+        <v>290.2175418314246</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>302.3342338808924</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.0555276341844</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27929,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27980,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>135.64139247037</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>7.600553522427077</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27998,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>49.60967578913214</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>104.1486779823914</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>195.6667364159068</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.9949191299504</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2302973952356</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>279.5785768147539</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.763224703080835</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H5" t="n">
-        <v>28.29887499042661</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I5" t="n">
-        <v>106.529220365524</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J5" t="n">
-        <v>234.5252426431072</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K5" t="n">
-        <v>351.4925443245191</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L5" t="n">
-        <v>436.0575823314293</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M5" t="n">
-        <v>485.1980796448431</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N5" t="n">
-        <v>493.0490918324716</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O5" t="n">
-        <v>465.5722761912115</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P5" t="n">
-        <v>397.3551663339033</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.3971816548208</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R5" t="n">
-        <v>173.5754137549017</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S5" t="n">
-        <v>62.9669829214546</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T5" t="n">
-        <v>12.09601613773636</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2210579762464668</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.478455556936129</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H6" t="n">
-        <v>14.27876814198841</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I6" t="n">
-        <v>50.90296544714305</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J6" t="n">
-        <v>139.6816278594788</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K6" t="n">
-        <v>238.7381501741994</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L6" t="n">
-        <v>321.0129050268556</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6069189657902</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5216494331383</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O6" t="n">
-        <v>351.7621868294482</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P6" t="n">
-        <v>282.3201668328298</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.7235549520575</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R6" t="n">
-        <v>91.79393361398181</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S6" t="n">
-        <v>27.46166352466887</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T6" t="n">
-        <v>5.959213407124133</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09726681295632433</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.239487474394253</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02017045415982</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I7" t="n">
-        <v>37.2747687754199</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J7" t="n">
-        <v>87.63176443967365</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>144.005908388714</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L7" t="n">
-        <v>184.2779832385783</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M7" t="n">
-        <v>194.2952956452736</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N7" t="n">
-        <v>189.6753877861679</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O7" t="n">
-        <v>175.1959204716532</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9103759940103</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.7901738785951</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R7" t="n">
-        <v>55.7318640759452</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S7" t="n">
-        <v>21.6008862583071</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T7" t="n">
-        <v>5.295991936048169</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06760840769423204</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.626565920651752</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>37.14056823487477</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>139.8131826559268</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>307.8002493079169</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>461.3127847291057</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>572.2993015232519</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>636.7932432146425</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>647.0972236366944</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>611.0355587632134</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>521.5047125971232</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>391.6283205637822</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>227.8072715131408</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>82.64037091685189</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.87529231765305</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2901252736521401</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.940383831978909</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>18.74002279832262</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>66.8070749168177</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>183.3237198449898</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>313.3294365875767</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>421.3100947461223</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>491.6490086553576</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>504.6614949671811</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>461.6666742691222</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>370.5282073539374</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>247.688294061027</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>120.4740066907607</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>36.04177863346786</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.821108515739545</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.127656831051244</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.626752623013666</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.46330968461242</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>48.92088797208373</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>115.0114104470662</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>188.9990774737695</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>241.8537490615046</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>255.0008679874967</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>248.9375173017187</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>229.9340889328772</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>196.7483354233982</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>136.2183491870807</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>73.14471339477811</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>28.34986162106543</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.950670298331118</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08873196125529099</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32005,7 +32007,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
         <v>781.7148990095023</v>
@@ -32318,7 +32320,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32555,7 +32557,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32567,7 +32569,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33272,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33989,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34153,7 +34155,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
         <v>99.83230779806951</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.47933811642096</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K5" t="n">
-        <v>131.4026932795385</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L5" t="n">
-        <v>200.291167361442</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M5" t="n">
-        <v>254.8518464175703</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N5" t="n">
-        <v>263.6360282358806</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O5" t="n">
-        <v>235.4740647695247</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1221705786338</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.09149178037129</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.8440011928121</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K6" t="n">
-        <v>100.8967111998404</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L6" t="n">
-        <v>182.4585252469814</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M6" t="n">
-        <v>232.4728850437719</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N6" t="n">
-        <v>253.179937349805</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O6" t="n">
-        <v>209.1659423850038</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P6" t="n">
-        <v>148.3457594184996</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.74178086603598</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.99265021817865</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L7" t="n">
-        <v>49.39330695733997</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M7" t="n">
-        <v>55.36951169766851</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N7" t="n">
-        <v>61.98984332093468</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O7" t="n">
-        <v>36.73938201981036</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P7" t="n">
-        <v>12.18237194486267</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>126.7543447812307</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>241.2229336841252</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>336.5328865532646</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>406.4470099873698</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>417.6841600401034</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>380.9373473415267</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>290.2717168418537</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>169.3226306893327</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>12.22173369900872</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>56.4860931783231</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>175.4879976132177</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>282.7557149662481</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>349.5149747333393</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>373.3197828838478</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>319.0704298246777</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>236.5537999396071</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>107.7065199750055</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>59.98581930323417</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>106.9690727802663</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>116.0750840398917</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>121.2519728364855</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>91.4775504810344</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>59.02033137425062</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
@@ -35966,7 +35968,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -36203,7 +36205,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36215,7 +36217,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36379,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36920,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37801,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
